--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150A5ED7-3591-4D21-8FF3-E69EA92A2C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C8C41D-D5B8-4857-92F8-D549AE54B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E31E08-E65E-4F20-A6DD-ABCDEE94F9E6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -1,276 +1,559 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C8C41D-D5B8-4857-92F8-D549AE54B1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
-    <sheet name="外呼管理" sheetId="2" r:id="rId2"/>
+    <sheet name="字段管理" sheetId="3" r:id="rId2"/>
+    <sheet name="外呼管理" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>assertparam</t>
+  </si>
+  <si>
+    <t>assertresult</t>
+  </si>
+  <si>
+    <t>线索列表</t>
+  </si>
+  <si>
+    <t>查询今天</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[1]/label[1]/span']</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/div/span']</t>
+  </si>
+  <si>
+    <t>暂无数据</t>
+  </si>
+  <si>
+    <t>查询昨天</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[1]/label[2]/span']</t>
+  </si>
+  <si>
+    <t>查询最近7天</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[1]/label[3]/span']</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr/td[1]/div/span']</t>
+  </si>
+  <si>
+    <t>查询最近30天</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[1]/label[4]/span']</t>
+  </si>
+  <si>
+    <t>查询线索id</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input']</t>
+  </si>
+  <si>
+    <t>["send_keys()","222"]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[2]/div/a']</t>
+  </si>
+  <si>
+    <t>查询电话号码</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[3]/div/div/div/input']</t>
+  </si>
+  <si>
+    <t>["send_keys()","13192293682"]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[5]/div']</t>
+  </si>
+  <si>
+    <t>查询客户姓名</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/input']</t>
+  </si>
+  <si>
+    <t>["send_keys()","周彦龙"]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr/td[3]/div']</t>
+  </si>
+  <si>
+    <t>周彦龙</t>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button/span']</t>
+  </si>
+  <si>
+    <t>呼叫时间升序</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[2]/table/thead/tr/th[1]/div/span/i[1]']</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/div/span']</t>
+  </si>
+  <si>
+    <t>呼叫时间降序</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[2]/table/thead/tr/th[1]/div/span/i[2]']</t>
+  </si>
+  <si>
+    <t>通话时长升序</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[2]/table/thead/tr/th[9]/div/span/i[1]']</t>
+  </si>
+  <si>
+    <t>通话时长降序</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[2]/table/thead/tr/th[9]/div/span/i[2]']</t>
+  </si>
+  <si>
+    <t>点击回传记录</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/span[2]']</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr/td[7]/div']</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>字段管理</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
   <si>
     <t>批次管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查询批次名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[test2021年11月17日21:03:22]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2021年11月17日21:03:22</t>
   </si>
   <si>
     <t>[阿萨德]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查询批次状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[已完成]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2021年11月17日21:03:22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线索列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询今天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询昨天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询最近7天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询最近30天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertparam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询线索id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询电话号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询客户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击回传记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫时间升序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫时间降序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通话时长升序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通话时长降序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[1]/label[3]/span']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[1]/label[4]/span']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[3]/div/div/div/input']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/input']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[2]/table/thead/tr/th[1]/div/span/i[1]']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[2]/table/thead/tr/th[1]/div/span/i[2]']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[2]/table/thead/tr/th[9]/div/span/i[1]']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[2]/table/thead/tr/th[9]/div/span/i[2]']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/span[2]']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button/span']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input']</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[1]/label[1]/span']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[1]/label[2]/span']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["send_keys()","222"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["send_keys()","13192293682"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["send_keys()","周彦龙"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/div/span']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr/td[1]/div/span']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[2]/div/a']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[5]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr/td[3]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周彦龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/div/span']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr/td[7]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -278,24 +561,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -344,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -379,7 +948,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -553,415 +1122,739 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="73.9140625" customWidth="1"/>
+    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="73.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="81.75" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
       </c>
       <c r="G6">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>13192293682</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="13.5" customHeight="1" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
       <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E31E08-E65E-4F20-A6DD-ABCDEE94F9E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="86.75" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="83.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>13192293682</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="3" max="3" width="14.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
     <sheet name="字段管理" sheetId="3" r:id="rId2"/>
-    <sheet name="外呼管理" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="外呼管理" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +161,75 @@
   </si>
   <si>
     <t>字段管理</t>
+  </si>
+  <si>
+    <t>查询字段名称</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[1]/div/div/input']</t>
+  </si>
+  <si>
+    <t>["send_keys()","电话号码"]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr/td[3]/div']</t>
+  </si>
+  <si>
+    <t>电话号码</t>
+  </si>
+  <si>
+    <t>查询文本字段类型</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span]]</t>
+  </si>
+  <si>
+    <t>["click()","click()","click()"]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr[1]/td[5]/div']</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>查询金额字段类型</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span]]</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>查询日期字段类型</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr/td[5]/div']</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>查询是否必填是</t>
+  </si>
+  <si>
+    <t>查询是否必填否</t>
+  </si>
+  <si>
+    <t>新增按钮</t>
+  </si>
+  <si>
+    <t>查看总计</t>
+  </si>
+  <si>
+    <t>编辑按钮</t>
+  </si>
+  <si>
+    <t>删除</t>
   </si>
   <si>
     <t>assert</t>
@@ -195,11 +265,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +287,120 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,128 +416,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,43 +431,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,19 +545,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,37 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,73 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +622,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,8 +691,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,210 +722,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,18 +1510,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="86.75" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="169" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
@@ -1495,17 +1558,19 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2"/>
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
@@ -1516,17 +1581,19 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3"/>
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
@@ -1537,17 +1604,19 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4"/>
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
@@ -1558,212 +1627,19 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5"/>
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>13192293682</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:7">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:7">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:7">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:7">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1773,6 +1649,150 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="52.25" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:7">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:7">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>13192293682</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E4"/>
@@ -1801,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1809,16 +1829,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1826,13 +1846,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1840,16 +1860,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -264,8 +264,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -279,13 +279,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -307,6 +300,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -315,97 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -413,14 +421,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -431,19 +431,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,73 +587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,85 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,11 +634,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +679,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -673,30 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -707,31 +722,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,133 +740,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,13 +1513,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="169" customWidth="1"/>
     <col min="5" max="5" width="31.125" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
@@ -1654,7 +1654,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>

--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0D621-D7BB-4BE8-9344-818A87B70223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -169,9 +175,6 @@
     <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[1]/div/div/input']</t>
   </si>
   <si>
-    <t>["send_keys()","电话号码"]</t>
-  </si>
-  <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr/td[3]/div']</t>
   </si>
   <si>
@@ -181,12 +184,6 @@
     <t>查询文本字段类型</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span]]</t>
-  </si>
-  <si>
-    <t>["click()","click()","click()"]</t>
-  </si>
-  <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr[1]/td[5]/div']</t>
   </si>
   <si>
@@ -196,18 +193,12 @@
     <t>查询金额字段类型</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span]]</t>
-  </si>
-  <si>
     <t>金额</t>
   </si>
   <si>
     <t>查询日期字段类型</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span]]</t>
-  </si>
-  <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr/td[5]/div']</t>
   </si>
   <si>
@@ -257,19 +248,33 @@
   </si>
   <si>
     <t>已完成</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["send_keys()","电话号码"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,24 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -303,320 +293,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -624,310 +314,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1185,30 +590,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="73.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="73.9140625" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="81.75" customWidth="1"/>
-    <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1251,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1271,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1291,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1311,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1334,7 +739,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1357,7 +762,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1380,7 +785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1400,7 +805,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1420,7 +825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1440,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1460,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1480,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1501,33 +906,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
     <col min="4" max="4" width="169" customWidth="1"/>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="31.08203125" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1563,17 +967,17 @@
       <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1581,22 +985,22 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1604,22 +1008,22 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
         <v>55</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1627,43 +1031,43 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="52.25" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5</v>
       </c>
@@ -1671,7 +1075,7 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1686,7 +1090,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1694,7 +1098,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1709,7 +1113,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1717,7 +1121,7 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1732,7 +1136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1740,7 +1144,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -1752,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1760,7 +1164,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -1772,7 +1176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1780,34 +1184,33 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1821,60 +1224,60 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0D621-D7BB-4BE8-9344-818A87B70223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -172,7 +166,10 @@
     <t>查询字段名称</t>
   </si>
   <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[1]/div/div/input']</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[1]/div/div/input']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","电话号码"]]</t>
   </si>
   <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr/td[3]/div']</t>
@@ -184,6 +181,12 @@
     <t>查询文本字段类型</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr[1]/td[5]/div']</t>
   </si>
   <si>
@@ -193,12 +196,18 @@
     <t>查询金额字段类型</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
+  </si>
+  <si>
     <t>金额</t>
   </si>
   <si>
     <t>查询日期字段类型</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
+  </si>
+  <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr/td[5]/div']</t>
   </si>
   <si>
@@ -248,33 +257,19 @@
   </si>
   <si>
     <t>已完成</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[2]/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["click()"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["send_keys()","电话号码"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,30 +278,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -314,25 +631,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -590,30 +1193,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="73.9140625" customWidth="1"/>
+    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="73.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="81.75" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +1239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -656,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -676,7 +1279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -696,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -716,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -739,7 +1342,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -762,7 +1365,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -785,7 +1388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -805,7 +1408,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="13.5" customHeight="1" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -825,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -845,7 +1448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -865,7 +1468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -885,7 +1488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -906,32 +1509,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="169" customWidth="1"/>
-    <col min="5" max="5" width="31.08203125" customWidth="1"/>
+    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="166.875" customWidth="1"/>
+    <col min="5" max="5" width="31.0833333333333" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -968,16 +1572,16 @@
         <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -985,22 +1589,22 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1008,22 +1612,22 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1031,43 +1635,44 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="52.25" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1">
         <v>5</v>
       </c>
@@ -1075,7 +1680,7 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
@@ -1090,7 +1695,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1098,7 +1703,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1113,7 +1718,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1121,7 +1726,7 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1136,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1144,7 +1749,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -1156,7 +1761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1164,7 +1769,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -1176,7 +1781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1184,33 +1789,34 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1224,60 +1830,60 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
     <sheet name="字段管理" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="外呼管理" sheetId="2" r:id="rId4"/>
+    <sheet name="批次管理" sheetId="2" r:id="rId3"/>
+    <sheet name="短信策略" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -163,13 +163,13 @@
     <t>字段管理</t>
   </si>
   <si>
-    <t>查询字段名称</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[1]/div/div/input']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","电话号码"]]</t>
+    <t>查询存在的字段名称</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[1]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","电话号码"],["click()"]]</t>
   </si>
   <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr/td[3]/div']</t>
@@ -178,6 +178,15 @@
     <t>电话号码</t>
   </si>
   <si>
+    <t>查询不存在的字段名称</t>
+  </si>
+  <si>
+    <t>[["send_keys()","ssa"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/div/span']</t>
+  </si>
+  <si>
     <t>查询文本字段类型</t>
   </si>
   <si>
@@ -217,46 +226,163 @@
     <t>查询是否必填是</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[3]/div/div/div[1]/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr[1]/td[6]/div']</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>查询是否必填否</t>
   </si>
   <si>
-    <t>新增按钮</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[3]/div/div/div[1]/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/form/div[4]/div/button[1]/span']]</t>
+  </si>
+  <si>
+    <t>新增名称为空</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/button/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]/span']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请输入字段名称</t>
+  </si>
+  <si>
+    <t>新增编码为空</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请输入字段编码</t>
+  </si>
+  <si>
+    <t>新增数据</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/button/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div[1]/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[5]/div/div/textarea'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]/span']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","测试啊"],["send_keys()","testax"],["send_keys()","测试描述啊"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.CLASS_NAME,'el-message__content']</t>
+  </si>
+  <si>
+    <t>新增成功</t>
   </si>
   <si>
     <t>查看总计</t>
   </si>
   <si>
-    <t>编辑按钮</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[2]/div[1]/span']]</t>
+  </si>
+  <si>
+    <t>[["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[2]/div[1]/span[2]']</t>
+  </si>
+  <si>
+    <t>共23条</t>
+  </si>
+  <si>
+    <t>编辑数据</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[2]/div[2]/div/div/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr[3]/td[10]/div/button[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]/span']]</t>
+  </si>
+  <si>
+    <t>编辑成功</t>
   </si>
   <si>
     <t>删除</t>
   </si>
   <si>
-    <t>assert</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[2]/div[2]/div/div/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div[1]/div/div[1]/div[3]/table/tbody/tr[3]/td[10]/div/button[2]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]/span']]</t>
+  </si>
+  <si>
+    <t>删除成功</t>
   </si>
   <si>
     <t>批次管理</t>
   </si>
   <si>
-    <t>查询批次名称</t>
-  </si>
-  <si>
-    <t>[test2021年11月17日21:03:22]</t>
-  </si>
-  <si>
-    <t>test2021年11月17日21:03:22</t>
-  </si>
-  <si>
-    <t>[阿萨德]</t>
-  </si>
-  <si>
-    <t>查询批次状态</t>
-  </si>
-  <si>
-    <t>[已完成]</t>
+    <t>查询不存在的批次名称</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","123"],["click()"]]</t>
+  </si>
+  <si>
+    <t>查询存在的批次名称</t>
+  </si>
+  <si>
+    <t>[["send_keys()","test2021年12月7日18:59:39"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr/td[3]/div/a']</t>
+  </si>
+  <si>
+    <t>test2021年12月7日18:59:39</t>
+  </si>
+  <si>
+    <t>查询批次状态暂停中</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]/span']]</t>
+  </si>
+  <si>
+    <t>查询批次状态进行中</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span']]</t>
+  </si>
+  <si>
+    <t>查询批次状态已完成</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]/span']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
   </si>
   <si>
     <t>已完成</t>
+  </si>
+  <si>
+    <t>查询批次状态已取消</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[5]/span']]</t>
+  </si>
+  <si>
+    <t>查询批次状态等待中</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[6]/span']]</t>
+  </si>
+  <si>
+    <t>创建批次</t>
+  </si>
+  <si>
+    <t>暂停批次</t>
+  </si>
+  <si>
+    <t>执行批次</t>
+  </si>
+  <si>
+    <t>取消批次</t>
   </si>
 </sst>
 </file>
@@ -264,53 +390,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,6 +426,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -346,15 +443,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,32 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,16 +501,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,43 +557,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,43 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,90 +738,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,26 +748,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,6 +771,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,24 +831,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,139 +866,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1202,7 +1321,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1518,18 +1637,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
     <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="166.875" customWidth="1"/>
-    <col min="5" max="5" width="31.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="175.125" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
@@ -1581,7 +1700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1591,20 +1710,20 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
       <c r="G3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1612,22 +1731,22 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" t="s">
         <v>59</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" customFormat="1" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1641,13 +1760,220 @@
         <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1660,99 +1986,105 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="52.25" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="116.625" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="79.875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1">
+    <row r="1" customFormat="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1">
-        <v>222</v>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2">
-        <v>13192293682</v>
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1761,42 +2093,141 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>9</v>
-      </c>
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1804,19 +2235,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="14.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="175.125" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
+    <col min="6" max="6" width="83.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customFormat="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1830,60 +2266,316 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G9" t="s">
         <v>78</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>79</v>
       </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B66894-E1D0-4517-A57A-0451E09AF8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -322,80 +328,268 @@
     <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
   </si>
   <si>
+    <t>查询存在的批次名称</t>
+  </si>
+  <si>
+    <t>[["send_keys()","test2021年12月7日18:59:39"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr/td[3]/div/a']</t>
+  </si>
+  <si>
+    <t>test2021年12月7日18:59:39</t>
+  </si>
+  <si>
+    <t>查询批次状态暂停中</t>
+  </si>
+  <si>
+    <t>查询批次状态进行中</t>
+  </si>
+  <si>
+    <t>查询批次状态已完成</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>查询批次状态已取消</t>
+  </si>
+  <si>
+    <t>查询批次状态等待中</t>
+  </si>
+  <si>
+    <t>创建批次</t>
+  </si>
+  <si>
+    <t>暂停批次</t>
+  </si>
+  <si>
+    <t>执行批次</t>
+  </si>
+  <si>
+    <t>取消批次</t>
+  </si>
+  <si>
+    <t>[By.CLASS_NAME,'el-message__content']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载外呼明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[5]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[3]/div/div[3]/span/button[2]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询存在的线索id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询不存在的线索id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询存在的电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询不存在的电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询存在的姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询不存在的姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询状态命中停呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询状态去重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询状态正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[["send_keys()","123"],["click()"]]</t>
-  </si>
-  <si>
-    <t>查询存在的批次名称</t>
-  </si>
-  <si>
-    <t>[["send_keys()","test2021年12月7日18:59:39"],["click()"]]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr/td[3]/div/a']</t>
-  </si>
-  <si>
-    <t>test2021年12月7日18:59:39</t>
-  </si>
-  <si>
-    <t>查询批次状态暂停中</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]/span']]</t>
-  </si>
-  <si>
-    <t>查询批次状态进行中</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span']]</t>
-  </si>
-  <si>
-    <t>查询批次状态已完成</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","123"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","222"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/div/span']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[3]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","13192293682"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","周彦龙"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","1t23"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[5]/div']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[3]/div']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周彦龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertparam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[5]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[6]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","testtime"],["click()"],["click()"],["clear()"],["send_keys()","0"],["click()"],["click()"],["send_keys()","2021-12-12"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/form/div[4]/div/button[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[2]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[3]/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[11]/div/div/div/span/span/i'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[13]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/div[2]/button[2]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[2]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[3]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[4]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载任务已创建成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[2]/div']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>查询批次状态已取消</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[5]/span']]</t>
-  </si>
-  <si>
-    <t>查询批次状态等待中</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[6]/span']]</t>
-  </si>
-  <si>
-    <t>创建批次</t>
-  </si>
-  <si>
-    <t>暂停批次</t>
-  </si>
-  <si>
-    <t>执行批次</t>
-  </si>
-  <si>
-    <t>取消批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,47 +598,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -452,297 +608,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -750,311 +629,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1312,30 +906,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="73.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="73.9140625" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="81.75" customWidth="1"/>
-    <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1378,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1398,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1418,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1438,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1461,7 +1055,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1484,7 +1078,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1507,7 +1101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1527,7 +1121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1547,7 +1141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1567,7 +1161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1587,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1607,7 +1201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1628,33 +1222,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="175.125" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="175.08203125" customWidth="1"/>
+    <col min="5" max="5" width="42.58203125" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1700,7 +1293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1723,7 +1316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1746,7 +1339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1769,7 +1362,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1792,7 +1385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1815,7 +1408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1838,7 +1431,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1861,7 +1454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1884,7 +1477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1907,7 +1500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1930,7 +1523,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1946,14 +1539,14 @@
       <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" t="s">
-        <v>85</v>
+      <c r="F13" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1977,31 +1570,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="116.625" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="79.875" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="131.58203125" customWidth="1"/>
+    <col min="5" max="5" width="37.25" customWidth="1"/>
+    <col min="6" max="6" width="79.83203125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2017,14 +1609,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2037,8 +1629,8 @@
       <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
+      <c r="E2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -2047,7 +1639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2055,22 +1647,22 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>103</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>104</v>
       </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2078,13 +1670,13 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -2093,18 +1685,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -2113,58 +1708,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
+        <v>107</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
+        <v>111</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -2173,86 +1777,355 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>112</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
+      <c r="C13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+      <c r="C14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+      <c r="C15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>98</v>
       </c>
-      <c r="C16" t="s">
-        <v>121</v>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16">
+        <v>13192293682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="175.125" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="175.08203125" customWidth="1"/>
+    <col min="5" max="5" width="42.58203125" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2298,7 +2171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2321,7 +2194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2344,7 +2217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2367,7 +2240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2390,7 +2263,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2413,7 +2286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2436,7 +2309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2459,7 +2332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2482,7 +2355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2505,7 +2378,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2528,7 +2401,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2551,7 +2424,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2575,7 +2448,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B66894-E1D0-4517-A57A-0451E09AF8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1200D4-BC8E-45BE-B15F-A34CBB2ACAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="191">
   <si>
     <t>id</t>
   </si>
@@ -325,263 +325,352 @@
     <t>查询不存在的批次名称</t>
   </si>
   <si>
+    <t>查询存在的批次名称</t>
+  </si>
+  <si>
+    <t>[["send_keys()","test2021年12月7日18:59:39"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr/td[3]/div/a']</t>
+  </si>
+  <si>
+    <t>test2021年12月7日18:59:39</t>
+  </si>
+  <si>
+    <t>查询批次状态暂停中</t>
+  </si>
+  <si>
+    <t>查询批次状态进行中</t>
+  </si>
+  <si>
+    <t>查询批次状态已完成</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>查询批次状态已取消</t>
+  </si>
+  <si>
+    <t>查询批次状态等待中</t>
+  </si>
+  <si>
+    <t>创建批次</t>
+  </si>
+  <si>
+    <t>暂停批次</t>
+  </si>
+  <si>
+    <t>执行批次</t>
+  </si>
+  <si>
+    <t>取消批次</t>
+  </si>
+  <si>
+    <t>[By.CLASS_NAME,'el-message__content']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载外呼明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[5]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[3]/div/div[3]/span/button[2]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询存在的线索id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询不存在的线索id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询存在的电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询不存在的电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询存在的姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询不存在的姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询状态命中停呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询状态去重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次详情查询状态正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["send_keys()","123"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","123"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","222"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/div/span']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[3]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","13192293682"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","周彦龙"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","1t23"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[5]/div']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[3]/div']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周彦龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertparam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-  </si>
-  <si>
-    <t>查询存在的批次名称</t>
-  </si>
-  <si>
-    <t>[["send_keys()","test2021年12月7日18:59:39"],["click()"]]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr/td[3]/div/a']</t>
-  </si>
-  <si>
-    <t>test2021年12月7日18:59:39</t>
-  </si>
-  <si>
-    <t>查询批次状态暂停中</t>
-  </si>
-  <si>
-    <t>查询批次状态进行中</t>
-  </si>
-  <si>
-    <t>查询批次状态已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[5]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[6]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","testtime"],["click()"],["click()"],["clear()"],["send_keys()","0"],["click()"],["click()"],["send_keys()","2021-12-12"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/form/div[4]/div/button[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[2]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[3]/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[11]/div/div/div/span/span/i'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[13]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/div[2]/button[2]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[2]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[3]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[4]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载任务已创建成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[2]/div']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>查询批次状态已取消</t>
-  </si>
-  <si>
-    <t>查询批次状态等待中</t>
-  </si>
-  <si>
-    <t>创建批次</t>
-  </si>
-  <si>
-    <t>暂停批次</t>
-  </si>
-  <si>
-    <t>执行批次</t>
-  </si>
-  <si>
-    <t>取消批次</t>
-  </si>
-  <si>
-    <t>[By.CLASS_NAME,'el-message__content']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载外呼明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[5]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[3]/div/div[3]/span/button[2]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次详情查询存在的线索id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次详情查询不存在的线索id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次详情查询存在的电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次详情查询不存在的电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次详情查询存在的姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次详情查询不存在的姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次详情查询状态命中停呼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次详情查询状态去重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次详情查询状态正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["send_keys()","123"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","123"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","222"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/div/span']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[3]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","13192293682"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","周彦龙"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","1t23"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[5]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[3]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周彦龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["click()"],["click()"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertparam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[5]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[6]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["click()"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","testtime"],["click()"],["click()"],["clear()"],["send_keys()","0"],["click()"],["click()"],["send_keys()","2021-12-12"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/form/div[4]/div/button[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[2]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[3]/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[11]/div/div/div/span/span/i'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[13]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/div[2]/button[2]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[2]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[3]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[4]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载任务已创建成功！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[2]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询存在的策略名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询不存在的策略名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询短信类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询状态启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询状态禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增名称为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增模板为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增名称已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增变量名称为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增变量条件为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增变量表达式为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增逻辑符号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr/td[2]/div']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]/span']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","测试啊"],["send_keys()","testax"],["send_keys()","测试描述啊"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["send_keys()","测试短信啊"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["send_keys()","ttt"],["click()"]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/div/span']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1540,7 +1629,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>94</v>
@@ -1580,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1610,10 +1699,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1626,11 +1715,11 @@
       <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
-        <v>100</v>
+      <c r="D2" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1647,19 +1736,19 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>102</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>103</v>
-      </c>
-      <c r="G3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1670,13 +1759,13 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1693,13 +1782,13 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -1716,19 +1805,19 @@
         <v>98</v>
       </c>
       <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>108</v>
-      </c>
-      <c r="G6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1739,19 +1828,19 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1762,13 +1851,13 @@
         <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -1785,19 +1874,19 @@
         <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1808,19 +1897,19 @@
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1831,19 +1920,19 @@
         <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1854,19 +1943,19 @@
         <v>98</v>
       </c>
       <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1877,19 +1966,19 @@
         <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1900,16 +1989,16 @@
         <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14">
         <v>123</v>
@@ -1923,19 +2012,19 @@
         <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1946,16 +2035,16 @@
         <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G16">
         <v>13192293682</v>
@@ -1969,19 +2058,19 @@
         <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1992,19 +2081,19 @@
         <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2015,19 +2104,19 @@
         <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2038,19 +2127,19 @@
         <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2061,19 +2150,19 @@
         <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2084,19 +2173,19 @@
         <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2108,17 +2197,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="175.08203125" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="129.1640625" customWidth="1"/>
     <col min="5" max="5" width="42.58203125" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
@@ -2152,80 +2242,74 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
+      <c r="B2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
+      <c r="E4" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
+      <c r="B5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>62</v>
@@ -2235,20 +2319,17 @@
       </c>
       <c r="F5" t="s">
         <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
+      <c r="B6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>65</v>
@@ -2258,20 +2339,17 @@
       </c>
       <c r="F6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
@@ -2281,20 +2359,17 @@
       </c>
       <c r="F7" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
+      <c r="B8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
@@ -2304,20 +2379,17 @@
       </c>
       <c r="F8" t="s">
         <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
+      <c r="B9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D9" t="s">
         <v>75</v>
@@ -2327,20 +2399,17 @@
       </c>
       <c r="F9" t="s">
         <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
+      <c r="B10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
@@ -2350,43 +2419,37 @@
       </c>
       <c r="F10" t="s">
         <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
+      <c r="B11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D11" t="s">
         <v>83</v>
       </c>
-      <c r="E11" t="s">
-        <v>84</v>
+      <c r="E11" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F11" t="s">
         <v>85</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
+      <c r="B12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
@@ -2396,20 +2459,17 @@
       </c>
       <c r="F12" t="s">
         <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
+      <c r="B13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D13" t="s">
         <v>93</v>
@@ -2419,20 +2479,17 @@
       </c>
       <c r="F13" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
+      <c r="B14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -2443,8 +2500,38 @@
       <c r="F14" t="s">
         <v>85</v>
       </c>
-      <c r="G14" t="s">
-        <v>97</v>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1200D4-BC8E-45BE-B15F-A34CBB2ACAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
     <sheet name="字段管理" sheetId="3" r:id="rId2"/>
     <sheet name="批次管理" sheetId="2" r:id="rId3"/>
     <sheet name="短信策略" sheetId="4" r:id="rId4"/>
+    <sheet name="呼出记录" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="289">
   <si>
     <t>id</t>
   </si>
@@ -325,6 +320,12 @@
     <t>查询不存在的批次名称</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","123"],["click()"]]</t>
+  </si>
+  <si>
     <t>查询存在的批次名称</t>
   </si>
   <si>
@@ -340,12 +341,21 @@
     <t>查询批次状态暂停中</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+  </si>
+  <si>
     <t>查询批次状态进行中</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+  </si>
+  <si>
     <t>查询批次状态已完成</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+  </si>
+  <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
   </si>
   <si>
@@ -355,330 +365,539 @@
     <t>查询批次状态已取消</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[5]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+  </si>
+  <si>
+    <t>已取消</t>
+  </si>
+  <si>
     <t>查询批次状态等待中</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[6]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
+  </si>
+  <si>
     <t>创建批次</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/form/div[4]/div/button[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[2]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[3]/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[11]/div/div/div/span/span/i'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[13]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/div[2]/button[2]/span']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","testtime"],["click()"],["click()"],["clear()"],["send_keys()","0"],["click()"],["click()"],["send_keys()","2021-12-12"],["click()"]]</t>
+  </si>
+  <si>
+    <t>创建成功</t>
+  </si>
+  <si>
     <t>暂停批次</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[2]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>暂停成功</t>
+  </si>
+  <si>
     <t>执行批次</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[3]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>执行成功</t>
+  </si>
+  <si>
     <t>取消批次</t>
   </si>
   <si>
-    <t>[By.CLASS_NAME,'el-message__content']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[4]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
   </si>
   <si>
     <t>取消成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下载外呼明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[5]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[3]/div/div[3]/span/button[2]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载任务已创建成功！</t>
   </si>
   <si>
     <t>批次详情查询存在的线索id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","123"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[2]/div']</t>
   </si>
   <si>
     <t>批次详情查询不存在的线索id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","222"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/div/span']</t>
   </si>
   <si>
     <t>批次详情查询存在的电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","13192293682"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[5]/div']</t>
   </si>
   <si>
     <t>批次详情查询不存在的电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>批次详情查询存在的姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[3]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","周彦龙"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[3]/div']</t>
   </si>
   <si>
     <t>批次详情查询不存在的姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","1t23"],["click()"]]</t>
   </si>
   <si>
     <t>批次详情查询状态命中停呼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"],["click()"]]</t>
   </si>
   <si>
     <t>批次详情查询状态去重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
   </si>
   <si>
     <t>批次详情查询状态正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["send_keys()","123"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","123"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","222"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/div/span']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[3]/div/div/div/input'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","13192293682"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","周彦龙"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","1t23"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[5]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[3]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周彦龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["click()"],["click()"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertparam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[5]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[6]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["click()"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","testtime"],["click()"],["click()"],["clear()"],["send_keys()","0"],["click()"],["click()"],["send_keys()","2021-12-12"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/form/div[4]/div/button[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[2]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[3]/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[9]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[11]/div/div/div/span/span/i'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/form/div[13]/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[3]/div[2]/button[2]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[2]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[3]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/div[1]/button[4]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载任务已创建成功！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="pane-first"]/div/div/div[2]/div[3]/table/tbody/tr/td[2]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[3]/div/a'],[By.XPATH,'//*[@id="pane-first"]/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[4]'],[By.XPATH,'//*[@id="pane-first"]/div/form/span/button[1]']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>短信策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查询存在的策略名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]/span']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","测试短信啊"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr/td[2]/div']</t>
+  </si>
+  <si>
+    <t>测试短信啊</t>
   </si>
   <si>
     <t>查询不存在的策略名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["send_keys()","ttt"],["click()"]]</t>
   </si>
   <si>
     <t>查询短信类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>挂机短信</t>
   </si>
   <si>
     <t>查询状态启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr/td[8]/div/div']</t>
+  </si>
+  <si>
+    <t>启用</t>
   </si>
   <si>
     <t>查询状态禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增名称为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>禁用</t>
+  </si>
+  <si>
+    <t>查询创建时间无</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-12"],["send_keys()","2021-12-12"],["click()"]]</t>
+  </si>
+  <si>
+    <t>查询创建时间有</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-13"],["send_keys()","2021-12-13"],["click()"]]</t>
+  </si>
+  <si>
+    <t>测试启用的短信</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>请输入策略名称</t>
   </si>
   <si>
     <t>新增模板为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[5]/div/div[3]']</t>
+  </si>
+  <si>
+    <t>请选择短信模板</t>
   </si>
   <si>
     <t>新增名称已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div[1]/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[5]/div/div[1]/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","测试短信啊"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>该短信策略[测试短信啊]名称已存在</t>
+  </si>
+  <si>
+    <t>新增变量名称为空</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[6]/div[2]/button/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]/span']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[7]/div/div[3]/table/tbody/tr/td[1]/div/div/div/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请选择变量名称</t>
+  </si>
+  <si>
+    <t>新增变量条件为空</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[7]/div/div[3]/table/tbody/tr/td[2]/div/div/div/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请选择条件</t>
+  </si>
+  <si>
+    <t>新增变量表达式为空</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[7]/div/div[3]/table/tbody/tr/td[3]/div/div/div/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请选择表达式</t>
+  </si>
+  <si>
+    <t>删除变量</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[6]/div[2]/button/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[7]/div/div[4]/div[2]/table/tbody/tr/td[4]/div/div/button']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[7]/div/div[3]/div/span']</t>
+  </si>
+  <si>
+    <t>新增逻辑符号为空</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[6]/div[2]/button/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[6]/div[2]/button/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[7]/div/div[3]/table/tbody/tr[1]/td[1]/div/div/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[7]/div/div[3]/table/tbody/tr[2]/td[1]/div/div/div/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]/span']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"],["click()"],["click()"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[8]/span[2]/div/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请输入</t>
   </si>
   <si>
     <t>正常新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","testsms"],["click()"],["click()"],["click()"]]</t>
   </si>
   <si>
     <t>编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增变量名称为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增变量条件为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增变量表达式为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增逻辑符号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr/td[2]/div']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]/span']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","测试啊"],["send_keys()","testax"],["send_keys()","测试描述啊"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["send_keys()","测试短信啊"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[["send_keys()","ttt"],["click()"]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/div/span']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[12]/div/div/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[12]/div/div/button[2]/span'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>呼出记录</t>
+  </si>
+  <si>
+    <t>查询存在的线索id</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["send_keys()","222"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr/td[3]/div/a']</t>
+  </si>
+  <si>
+    <t>查询不存在的线索id</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["send_keys()","333"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/div/span']</t>
+  </si>
+  <si>
+    <t>查询存在的外呼批次</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[3]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["send_keys()","test2021年12月5日09:56:39"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[4]/div/a']</t>
+  </si>
+  <si>
+    <t>test2021年12月5日09:56:39</t>
+  </si>
+  <si>
+    <t>查询不存在的外呼批次</t>
+  </si>
+  <si>
+    <t>查询存在的呼叫对象</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["send_keys()","周生生"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[5]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的呼叫对象</t>
+  </si>
+  <si>
+    <t>查询存在的电话号码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["send_keys()","13192293682"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[6]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的电话号码</t>
+  </si>
+  <si>
+    <t>查询存在的主叫号码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["send_keys()","02133191292"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[8]/div']</t>
+  </si>
+  <si>
+    <t>02133191292</t>
+  </si>
+  <si>
+    <t>查询不存在的主叫号码</t>
+  </si>
+  <si>
+    <t>查询接听状态成功</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[7]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[4]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[10]/div']</t>
+  </si>
+  <si>
+    <t>查询接听状态失败</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[7]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[4]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>查询存在的通话时长</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[8]/div/div/div/div[1]/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[8]/div/div/div/div[2]/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["send_keys()","0"],["send_keys()","60"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[9]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的通话时长</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["send_keys()","0"],["send_keys()","6"],["click()"]]</t>
+  </si>
+  <si>
+    <t>查询存在的话术策略</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[9]/div/div/div/div/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[15]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的话术策略</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[9]/div/div/div/div/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>查询转人工是</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[10]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>查询转人工否</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[10]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>线索详情</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr/td[3]/div/a']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/div[2]/div[9]/div[2]']</t>
+  </si>
+  <si>
+    <t>周生生</t>
+  </si>
+  <si>
+    <t>外呼批次详情</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[4]/div/a']]</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[1]/div[1]/button[1]']]</t>
+  </si>
+  <si>
+    <t>下载成功</t>
+  </si>
+  <si>
+    <t>批量修改</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[1]/div[1]/button[2]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[4]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["click()"],["click()"],["click()"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[12]/div']</t>
+  </si>
+  <si>
+    <t>拒访-接通后挂断</t>
+  </si>
+  <si>
+    <t>下载录音</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr/td[17]/div/div/button[2]]</t>
+  </si>
+  <si>
+    <t>导出成功</t>
+  </si>
+  <si>
+    <t>通话详情</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[2]/div[1]/div[2]']</t>
+  </si>
+  <si>
+    <t>通话详情-编辑</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[3]/div/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[4]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[3]/div/span[2]']]</t>
+  </si>
+  <si>
+    <t>操作成功</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,30 +906,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -718,26 +1259,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -995,30 +1828,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="73.9140625" customWidth="1"/>
+    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="73.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="81.75" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1061,7 +1894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1081,7 +1914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1101,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1121,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1144,7 +1977,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1167,7 +2000,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1190,7 +2023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1210,7 +2043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="13.5" customHeight="1" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1230,7 +2063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1250,7 +2083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1270,7 +2103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1290,7 +2123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1311,32 +2144,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="175.08203125" customWidth="1"/>
-    <col min="5" max="5" width="42.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="175.083333333333" customWidth="1"/>
+    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +2193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1372,7 +2206,7 @@
       <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F2" t="s">
@@ -1382,7 +2216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1395,7 +2229,7 @@
       <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
@@ -1405,7 +2239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1415,10 +2249,10 @@
       <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F4" t="s">
@@ -1428,7 +2262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1438,10 +2272,10 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F5" t="s">
@@ -1451,7 +2285,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1461,10 +2295,10 @@
       <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F6" t="s">
@@ -1474,7 +2308,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1487,7 +2321,7 @@
       <c r="D7" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F7" t="s">
@@ -1497,7 +2331,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1510,7 +2344,7 @@
       <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
@@ -1520,7 +2354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1543,7 +2377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1566,7 +2400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1589,7 +2423,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1612,7 +2446,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1628,14 +2462,14 @@
       <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>115</v>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="G13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1659,30 +2493,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="131.58203125" customWidth="1"/>
+    <col min="4" max="4" width="131.583333333333" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="79.83203125" customWidth="1"/>
+    <col min="6" max="6" width="79.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1698,14 +2533,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1715,11 +2550,11 @@
       <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>131</v>
+      <c r="D2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1728,7 +2563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1736,22 +2571,22 @@
         <v>98</v>
       </c>
       <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>101</v>
+      <c r="E3" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1759,13 +2594,13 @@
         <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>155</v>
+        <v>106</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1774,7 +2609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1782,13 +2617,13 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>155</v>
+        <v>108</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -1797,7 +2632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1805,22 +2640,22 @@
         <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>155</v>
+        <v>110</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1828,22 +2663,22 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1851,13 +2686,13 @@
         <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -1866,7 +2701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1874,22 +2709,22 @@
         <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1897,22 +2732,22 @@
         <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1920,22 +2755,22 @@
         <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1943,279 +2778,280 @@
         <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>162</v>
+      <c r="C14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="G14">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>141</v>
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="G16">
         <v>13192293682</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>143</v>
+      <c r="C22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="129.1640625" customWidth="1"/>
-    <col min="5" max="5" width="42.58203125" customWidth="1"/>
-    <col min="6" max="6" width="83.25" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="143.375" customWidth="1"/>
+    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="81.125" customWidth="1"/>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2238,304 +3074,1036 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>155</v>
+      <c r="D4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="G5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>174</v>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>179</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>175</v>
+      <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>179</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>176</v>
+      <c r="B9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>177</v>
+      <c r="B10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>181</v>
+      <c r="B11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>191</v>
       </c>
       <c r="F11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>182</v>
+      <c r="B12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
+        <v>194</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="G12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>183</v>
+      <c r="B13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="G13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>184</v>
+      <c r="B14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>180</v>
+      <c r="B17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="136.75" customWidth="1"/>
+    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="81.125" customWidth="1"/>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25">
+        <v>13192293682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="4"/>
+    <workbookView windowHeight="17940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="批次管理" sheetId="2" r:id="rId3"/>
     <sheet name="短信策略" sheetId="4" r:id="rId4"/>
     <sheet name="呼出记录" sheetId="5" r:id="rId5"/>
+    <sheet name="停呼黑名单" sheetId="6" r:id="rId6"/>
+    <sheet name="用户管理" sheetId="7" r:id="rId7"/>
+    <sheet name="角色管理" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="381">
   <si>
     <t>id</t>
   </si>
@@ -722,6 +725,9 @@
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[5]/div']</t>
   </si>
   <si>
+    <t>周生生</t>
+  </si>
+  <si>
     <t>查询不存在的呼叫对象</t>
   </si>
   <si>
@@ -761,7 +767,7 @@
     <t>查询接听状态成功</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[7]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[4]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[7]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
   </si>
   <si>
     <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["click()"],["click()"],["click()"]]</t>
@@ -770,10 +776,13 @@
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[10]/div']</t>
   </si>
   <si>
+    <t>成功</t>
+  </si>
+  <si>
     <t>查询接听状态失败</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[7]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[4]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[7]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
   </si>
   <si>
     <t>查询存在的通话时长</t>
@@ -797,16 +806,22 @@
     <t>查询存在的话术策略</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[9]/div/div/div/div/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[9]/div/div/div/div/input'],[By.XPATH,'/html/body/div[4]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["click()"],["click()"],["click()"],["click()"]]</t>
   </si>
   <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[3]/table/tbody/tr/td[15]/div']</t>
   </si>
   <si>
+    <t>测试一汽营销</t>
+  </si>
+  <si>
     <t>查询不存在的话术策略</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[9]/div/div/div/div/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[9]/div/div/div/div/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
   </si>
   <si>
     <t>查询转人工是</t>
@@ -833,9 +848,6 @@
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[1]/div[2]/div[9]/div[2]']</t>
   </si>
   <si>
-    <t>周生生</t>
-  </si>
-  <si>
     <t>外呼批次详情</t>
   </si>
   <si>
@@ -845,9 +857,6 @@
     <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[1]/div[1]/button[1]']]</t>
   </si>
   <si>
-    <t>下载成功</t>
-  </si>
-  <si>
     <t>批量修改</t>
   </si>
   <si>
@@ -866,7 +875,7 @@
     <t>下载录音</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr/td[17]/div/div/button[2]]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr/td[17]/div/div/button[2]']]</t>
   </si>
   <si>
     <t>导出成功</t>
@@ -875,16 +884,286 @@
     <t>通话详情</t>
   </si>
   <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[2]/div[1]/div[2]']</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr/td[17]/div/div/button[3]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[1]/div']</t>
   </si>
   <si>
     <t>通话详情-编辑</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[3]/div/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[4]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[3]/div/span[2]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/div/div[2]/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr/td[17]/div/div/button[3]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[3]/div/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[4]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[4]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/div[2]/div[2]/div/div[3]/div/span[2]']]</t>
   </si>
   <si>
     <t>操作成功</t>
+  </si>
+  <si>
+    <t>停呼黑名单</t>
+  </si>
+  <si>
+    <t>查询已存在的停呼号码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","13192293681"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[3]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的停呼号码</t>
+  </si>
+  <si>
+    <t>[["send_keys()","13192293682"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/div/span']</t>
+  </si>
+  <si>
+    <t>查询已存在的停呼原因</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","已还款"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[4]/div']</t>
+  </si>
+  <si>
+    <t>已还款</t>
+  </si>
+  <si>
+    <t>查询不存在的停呼原因</t>
+  </si>
+  <si>
+    <t>查询已存在的创建日期</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[3]/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[3]/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-14"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[6]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的创建日期</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["click()"]]</t>
+  </si>
+  <si>
+    <t>新增停呼号码为空</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[2]/div/form/div[1]/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请输入停呼号码</t>
+  </si>
+  <si>
+    <t>新增停呼</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[2]/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","13111111111"],["click()"]]</t>
+  </si>
+  <si>
+    <t>添加停呼成功！</t>
+  </si>
+  <si>
+    <t>批量入呼</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[4]/div[2]/table/tbody/tr[2]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[2]']]</t>
+  </si>
+  <si>
+    <t>入呼成功！</t>
+  </si>
+  <si>
+    <t>导出停呼</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>编辑命中规则停呼</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="tab-rule"]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div/div[3]/button'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div/div[3]/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>查询角色超管</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>查询人工坐席是</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>查询人工坐席否</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[5]/div/div']</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[4]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr/td[6]/div']</t>
+  </si>
+  <si>
+    <t>冻结</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[6]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","zzyl"],["send_keys()","zyl"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>新增成功！</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]'],[By.XPATH,'/html/body/div[6]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>禁用成功</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]'],[By.XPATH,'/html/body/div[3]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>启用成功</t>
+  </si>
+  <si>
+    <t>批量启用</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[2]'],[By.XPATH,'/html/body/div[3]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>查询存在的登录名</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","zhou11"],["click()"]]</t>
+  </si>
+  <si>
+    <t>zhou11</t>
+  </si>
+  <si>
+    <t>查询不存在的登录名</t>
+  </si>
+  <si>
+    <t>查询存在的姓名</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","周彦龙"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[3]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的姓名</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-11"],["send_keys()","2021-12-11"],["click()"]]</t>
+  </si>
+  <si>
+    <t>新增用户名称为空</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>请输入登录名称</t>
+  </si>
+  <si>
+    <t>新增用户姓名为空</t>
+  </si>
+  <si>
+    <t>请输入用户姓名</t>
+  </si>
+  <si>
+    <t>新增用户角色为空</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请选择角色</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[2]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>编辑成功！</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>重置密码成功</t>
+  </si>
+  <si>
+    <t>批量禁用</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>批量重置密码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
   </si>
 </sst>
 </file>
@@ -892,12 +1171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,29 +1188,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -939,20 +1195,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,14 +1216,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,9 +1238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,15 +1253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,17 +1269,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,19 +1338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,25 +1350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,19 +1392,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,49 +1464,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,18 +1518,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1257,26 +1529,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1313,23 +1565,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,7 +1601,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,10 +1635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1375,144 +1647,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2206,7 +2478,7 @@
       <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F2" t="s">
@@ -2229,7 +2501,7 @@
       <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
@@ -2249,10 +2521,10 @@
       <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F4" t="s">
@@ -2272,10 +2544,10 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F5" t="s">
@@ -2295,10 +2567,10 @@
       <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" t="s">
@@ -2321,7 +2593,7 @@
       <c r="D7" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F7" t="s">
@@ -2344,7 +2616,7 @@
       <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
@@ -2576,7 +2848,7 @@
       <c r="D3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F3" t="s">
@@ -3036,7 +3308,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3130,7 +3402,7 @@
       <c r="C4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3153,10 +3425,10 @@
       <c r="C5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F5" t="s">
@@ -3176,10 +3448,10 @@
       <c r="C6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" t="s">
@@ -3202,7 +3474,7 @@
       <c r="D7" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>180</v>
       </c>
       <c r="F7" t="s">
@@ -3225,7 +3497,7 @@
       <c r="D8" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F8" t="s">
@@ -3248,7 +3520,7 @@
       <c r="D9" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F9" t="s">
@@ -3277,7 +3549,7 @@
       <c r="F10" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3499,8 +3771,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3630,7 +3902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:6">
+    <row r="6" customFormat="1" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3648,6 +3920,9 @@
       </c>
       <c r="F6" t="s">
         <v>233</v>
+      </c>
+      <c r="G6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:7">
@@ -3658,7 +3933,7 @@
         <v>216</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>231</v>
@@ -3681,18 +3956,20 @@
         <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13192293682</v>
+      </c>
     </row>
     <row r="9" customFormat="1" spans="1:7">
       <c r="A9">
@@ -3702,10 +3979,10 @@
         <v>216</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>219</v>
@@ -3725,19 +4002,19 @@
         <v>216</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:7">
@@ -3748,10 +4025,10 @@
         <v>216</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>219</v>
@@ -3763,7 +4040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:6">
+    <row r="12" customFormat="1" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3771,16 +4048,19 @@
         <v>216</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="G12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:7">
@@ -3791,13 +4071,13 @@
         <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>223</v>
@@ -3814,16 +4094,16 @@
         <v>216</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G14">
         <v>43</v>
@@ -3837,13 +4117,13 @@
         <v>216</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>223</v>
@@ -3852,7 +4132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:6">
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3860,16 +4140,19 @@
         <v>216</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="G16" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:7">
@@ -3880,13 +4163,13 @@
         <v>216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>223</v>
@@ -3903,13 +4186,13 @@
         <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>223</v>
@@ -3926,13 +4209,13 @@
         <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>223</v>
@@ -3941,7 +4224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" customFormat="1" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3949,22 +4232,22 @@
         <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3972,22 +4255,22 @@
         <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3998,19 +4281,19 @@
         <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4018,88 +4301,941 @@
         <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G23" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G25">
-        <v>13192293682</v>
+        <v>288</v>
+      </c>
+      <c r="G25" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C26" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="136.75" customWidth="1"/>
+    <col min="5" max="5" width="39.125" customWidth="1"/>
+    <col min="6" max="6" width="78.75" customWidth="1"/>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2">
+        <v>13192293681</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44544.631412037</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="136.75" customWidth="1"/>
+    <col min="5" max="5" width="39.125" customWidth="1"/>
+    <col min="6" max="6" width="78.75" customWidth="1"/>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:7">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -14,14 +14,13 @@
     <sheet name="呼出记录" sheetId="5" r:id="rId5"/>
     <sheet name="停呼黑名单" sheetId="6" r:id="rId6"/>
     <sheet name="用户管理" sheetId="7" r:id="rId7"/>
-    <sheet name="角色管理" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="380">
   <si>
     <t>id</t>
   </si>
@@ -1010,6 +1009,36 @@
     <t>用户管理</t>
   </si>
   <si>
+    <t>查询存在的登录名</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","zhou11"],["click()"]]</t>
+  </si>
+  <si>
+    <t>zhou11</t>
+  </si>
+  <si>
+    <t>查询不存在的登录名</t>
+  </si>
+  <si>
+    <t>查询存在的姓名</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","周彦龙"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[3]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的姓名</t>
+  </si>
+  <si>
     <t>查询角色超管</t>
   </si>
   <si>
@@ -1022,19 +1051,19 @@
     <t>查询人工坐席是</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
   </si>
   <si>
     <t>查询人工坐席否</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
   </si>
   <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[5]/div/div']</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[4]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
   </si>
   <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr/td[6]/div']</t>
@@ -1043,10 +1072,40 @@
     <t>冻结</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-11"],["send_keys()","2021-12-11"],["click()"]]</t>
+  </si>
+  <si>
+    <t>新增用户名称为空</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>请输入登录名称</t>
+  </si>
+  <si>
+    <t>新增用户姓名为空</t>
+  </si>
+  <si>
+    <t>请输入用户姓名</t>
+  </si>
+  <si>
+    <t>新增用户角色为空</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请选择角色</t>
+  </si>
+  <si>
     <t>新增用户</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[6]/div[1]/div[1]/ul/li[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
   </si>
   <si>
     <t>[["click()"],["send_keys()","zzyl"],["send_keys()","zyl"],["click()"],["click()"],["click()"]]</t>
@@ -1055,106 +1114,43 @@
     <t>新增成功！</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]'],[By.XPATH,'/html/body/div[6]/div/div[3]/button[2]']]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
   </si>
   <si>
     <t>禁用成功</t>
   </si>
   <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]'],[By.XPATH,'/html/body/div[3]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>[["click()"],["click()"],["click()"],["click()"],["click()"],["click()"]]</t>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]/span'],[By.XPATH,'/html/body/div[3]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"],["click()"],["click()"]]</t>
   </si>
   <si>
     <t>启用成功</t>
   </si>
   <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[2]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>编辑成功！</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>重置密码成功</t>
+  </si>
+  <si>
+    <t>批量禁用</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
     <t>批量启用</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[5]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[2]'],[By.XPATH,'/html/body/div[3]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>查询存在的登录名</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","zhou11"],["click()"]]</t>
-  </si>
-  <si>
-    <t>zhou11</t>
-  </si>
-  <si>
-    <t>查询不存在的登录名</t>
-  </si>
-  <si>
-    <t>查询存在的姓名</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","周彦龙"],["click()"]]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[3]/div']</t>
-  </si>
-  <si>
-    <t>查询不存在的姓名</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","2021-12-11"],["send_keys()","2021-12-11"],["click()"]]</t>
-  </si>
-  <si>
-    <t>新增用户名称为空</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>请输入登录名称</t>
-  </si>
-  <si>
-    <t>新增用户姓名为空</t>
-  </si>
-  <si>
-    <t>请输入用户姓名</t>
-  </si>
-  <si>
-    <t>新增用户角色为空</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div[2]']</t>
-  </si>
-  <si>
-    <t>请选择角色</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[2]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>编辑成功！</t>
-  </si>
-  <si>
-    <t>重置密码</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>重置密码成功</t>
-  </si>
-  <si>
-    <t>批量禁用</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
   </si>
   <si>
     <t>批量重置密码</t>
@@ -1172,9 +1168,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1182,6 +1178,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1194,29 +1197,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,23 +1219,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1261,9 +1251,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1272,6 +1275,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1293,39 +1319,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1338,7 +1334,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,7 +1358,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,37 +1406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,7 +1430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,61 +1454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,7 +1472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,13 +1484,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,6 +1543,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1583,6 +1588,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1593,30 +1613,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,10 +1631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1647,133 +1643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4697,19 +4693,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
-    <col min="5" max="5" width="39.125" customWidth="1"/>
+    <col min="5" max="5" width="38.75" customWidth="1"/>
     <col min="6" max="6" width="78.75" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
     <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
@@ -4738,9 +4734,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="17" customHeight="1" spans="1:7">
+    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>328</v>
@@ -4749,33 +4745,33 @@
         <v>329</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:7">
+      <c r="F2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>298</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -4786,7 +4782,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>328</v>
@@ -4798,435 +4794,303 @@
         <v>335</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>337</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>338</v>
+        <v>101</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="17" customHeight="1" spans="1:7">
       <c r="A6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
       <c r="A7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C7" t="s">
-        <v>177</v>
+      <c r="C7" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
       <c r="A8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C8" t="s">
-        <v>174</v>
+      <c r="C8" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
         <v>346</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" t="s">
-        <v>348</v>
+      <c r="G8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:7">
       <c r="A9">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:7">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:7">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:7">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:7">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:7">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C12" t="s">
-        <v>213</v>
+      <c r="C12" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
       <c r="A13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C13" t="s">
-        <v>373</v>
+      <c r="C13" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>358</v>
       </c>
       <c r="G13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C14" t="s">
-        <v>376</v>
+      <c r="C14" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>362</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:7">
       <c r="A17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>76</v>
@@ -5235,6 +5099,121 @@
         <v>85</v>
       </c>
       <c r="G17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
         <v>97</v>
       </c>
     </row>

--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A629D37-77F6-4DE1-A02F-0A80A94DDC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,8 @@
     <sheet name="短信策略" sheetId="4" r:id="rId4"/>
     <sheet name="呼出记录" sheetId="5" r:id="rId5"/>
     <sheet name="停呼黑名单" sheetId="6" r:id="rId6"/>
-    <sheet name="用户管理" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="用户管理" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1165,14 +1172,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1181,345 +1182,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1527,251 +1204,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1784,61 +1219,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2096,30 +1487,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="73.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="73.9140625" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="81.75" customWidth="1"/>
-    <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2142,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2162,7 +1553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2182,7 +1573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2202,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2222,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2245,7 +1636,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2268,7 +1659,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2291,7 +1682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2311,7 +1702,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2331,7 +1722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2351,7 +1742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2371,7 +1762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2391,7 +1782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2412,33 +1803,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="175.083333333333" customWidth="1"/>
-    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="175.08203125" customWidth="1"/>
+    <col min="5" max="5" width="42.58203125" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2461,7 +1851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2484,7 +1874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2507,7 +1897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2530,7 +1920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2553,7 +1943,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2576,7 +1966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2599,7 +1989,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2622,7 +2012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2645,7 +2035,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2668,7 +2058,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2691,7 +2081,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2714,7 +2104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2737,7 +2127,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2761,31 +2151,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="131.583333333333" customWidth="1"/>
+    <col min="4" max="4" width="131.58203125" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="79.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="79.83203125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2808,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2831,7 +2220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2854,7 +2243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2877,7 +2266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2900,7 +2289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2923,7 +2312,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2946,7 +2335,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2969,7 +2358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2992,7 +2381,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3015,7 +2404,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3038,7 +2427,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3061,7 +2450,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3084,7 +2473,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3107,7 +2496,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3130,7 +2519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3153,7 +2542,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3176,7 +2565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3199,7 +2588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3222,7 +2611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3245,7 +2634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3268,7 +2657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3292,34 +2681,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="143.375" customWidth="1"/>
-    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="81.125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="143.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.58203125" customWidth="1"/>
+    <col min="6" max="6" width="81.08203125" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3342,7 +2730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3365,7 +2753,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3388,7 +2776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3411,7 +2799,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3434,7 +2822,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3457,7 +2845,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3480,7 +2868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3503,7 +2891,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3526,7 +2914,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3549,7 +2937,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3572,7 +2960,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3595,7 +2983,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3618,7 +3006,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3641,7 +3029,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3664,7 +3052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3687,7 +3075,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3710,7 +3098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3733,7 +3121,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3757,33 +3145,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
-    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="81.125" customWidth="1"/>
+    <col min="5" max="5" width="42.58203125" customWidth="1"/>
+    <col min="6" max="6" width="81.08203125" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3806,7 +3193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3829,7 +3216,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3852,7 +3239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3875,7 +3262,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3898,7 +3285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3921,7 +3308,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3944,7 +3331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3967,7 +3354,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3990,7 +3377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4013,7 +3400,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4036,7 +3423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4059,7 +3446,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4082,7 +3469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4105,7 +3492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4128,7 +3515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4151,7 +3538,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4174,7 +3561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4197,7 +3584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4220,7 +3607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4243,7 +3630,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4266,7 +3653,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4289,7 +3676,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4312,7 +3699,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4335,7 +3722,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4358,7 +3745,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4382,33 +3769,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
-    <col min="5" max="5" width="39.125" customWidth="1"/>
+    <col min="5" max="5" width="39.08203125" customWidth="1"/>
     <col min="6" max="6" width="78.75" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4431,7 +3817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4454,7 +3840,7 @@
         <v>13192293681</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4477,241 +3863,256 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44544.631412037</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:7">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:7">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:7">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E430DC-23E6-4DA5-8509-D807ABED23D9}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44544.631412037001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
     <col min="5" max="5" width="38.75" customWidth="1"/>
     <col min="6" max="6" width="78.75" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4757,7 +4158,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4780,7 +4181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4803,7 +4204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4826,7 +4227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="17" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4849,7 +4250,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4872,7 +4273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4895,7 +4296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4918,7 +4319,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4941,7 +4342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4964,7 +4365,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4987,7 +4388,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5010,7 +4411,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5033,7 +4434,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5056,7 +4457,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5079,7 +4480,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5102,7 +4503,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5125,7 +4526,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5148,7 +4549,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5171,7 +4572,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5194,7 +4595,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5218,7 +4619,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A629D37-77F6-4DE1-A02F-0A80A94DDC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,7 @@
     <sheet name="短信策略" sheetId="4" r:id="rId4"/>
     <sheet name="呼出记录" sheetId="5" r:id="rId5"/>
     <sheet name="停呼黑名单" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
-    <sheet name="用户管理" sheetId="7" r:id="rId8"/>
+    <sheet name="用户管理" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1172,8 +1165,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,21 +1181,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1204,9 +1527,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1219,17 +1784,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1487,30 +2096,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="73.9140625" customWidth="1"/>
+    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="73.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="81.75" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +2142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1553,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1573,7 +2182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1593,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1613,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1636,7 +2245,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1659,7 +2268,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1682,7 +2291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1702,7 +2311,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="13.5" customHeight="1" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1722,7 +2331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1742,7 +2351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1762,7 +2371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1782,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1803,32 +2412,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="175.08203125" customWidth="1"/>
-    <col min="5" max="5" width="42.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="175.083333333333" customWidth="1"/>
+    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +2461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1874,7 +2484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1897,7 +2507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1920,7 +2530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1943,7 +2553,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1966,7 +2576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1989,7 +2599,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2012,7 +2622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2035,7 +2645,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2058,7 +2668,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2081,7 +2691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2104,7 +2714,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2127,7 +2737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2151,30 +2761,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="131.58203125" customWidth="1"/>
+    <col min="4" max="4" width="131.583333333333" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="79.83203125" customWidth="1"/>
+    <col min="6" max="6" width="79.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2220,7 +2831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2243,7 +2854,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2266,7 +2877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2289,7 +2900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2312,7 +2923,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2335,7 +2946,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2358,7 +2969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2381,7 +2992,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2404,7 +3015,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2427,7 +3038,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2450,7 +3061,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2473,7 +3084,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2496,7 +3107,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2519,7 +3130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2542,7 +3153,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2565,7 +3176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2588,7 +3199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2611,7 +3222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="13.5" customHeight="1" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2634,7 +3245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2657,7 +3268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2681,33 +3292,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="143.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.58203125" customWidth="1"/>
-    <col min="6" max="6" width="81.08203125" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="143.333333333333" customWidth="1"/>
+    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="81.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2730,7 +3342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2753,7 +3365,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2776,7 +3388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2799,7 +3411,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2822,7 +3434,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2845,7 +3457,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2868,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2891,7 +3503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2914,7 +3526,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2937,7 +3549,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2960,7 +3572,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2983,7 +3595,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3006,7 +3618,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3029,7 +3641,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3052,7 +3664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3075,7 +3687,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3098,7 +3710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3121,7 +3733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3145,32 +3757,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
-    <col min="5" max="5" width="42.58203125" customWidth="1"/>
-    <col min="6" max="6" width="81.08203125" customWidth="1"/>
+    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="81.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3193,7 +3806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3216,7 +3829,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3239,7 +3852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3262,7 +3875,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3285,7 +3898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3308,7 +3921,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3331,7 +3944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3354,7 +3967,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3377,7 +3990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3400,7 +4013,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3423,7 +4036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3446,7 +4059,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3469,7 +4082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3492,7 +4105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3515,7 +4128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3538,7 +4151,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3561,7 +4174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3584,7 +4197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3607,7 +4220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3630,7 +4243,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3653,7 +4266,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3676,7 +4289,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3699,7 +4312,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3722,7 +4335,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3745,7 +4358,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3769,32 +4382,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
-    <col min="5" max="5" width="39.08203125" customWidth="1"/>
+    <col min="5" max="5" width="39.0833333333333" customWidth="1"/>
     <col min="6" max="6" width="78.75" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3817,7 +4431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3840,7 +4454,7 @@
         <v>13192293681</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3863,256 +4477,241 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" customFormat="1" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44544.631412037</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E430DC-23E6-4DA5-8509-D807ABED23D9}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44544.631412037001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
     <col min="5" max="5" width="38.75" customWidth="1"/>
     <col min="6" max="6" width="78.75" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4135,7 +4734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4158,7 +4757,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4181,7 +4780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4204,7 +4803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4227,7 +4826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="17" customHeight="1" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4250,7 +4849,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4273,7 +4872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4296,7 +4895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4319,7 +4918,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4342,7 +4941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4365,7 +4964,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4388,7 +4987,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4411,7 +5010,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4434,7 +5033,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4457,7 +5056,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4480,7 +5079,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4503,7 +5102,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4526,7 +5125,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4549,7 +5148,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4572,7 +5171,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4595,7 +5194,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4619,7 +5218,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="6"/>
+    <workbookView windowHeight="17940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="381">
   <si>
     <t>id</t>
   </si>
@@ -911,6 +911,9 @@
   </si>
   <si>
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[3]/div']</t>
+  </si>
+  <si>
+    <t>13192293681</t>
   </si>
   <si>
     <t>查询不存在的停呼号码</t>
@@ -1188,6 +1191,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -1196,7 +1261,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,19 +1290,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1242,7 +1306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,69 +1320,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1334,7 +1337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,55 +1385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,7 +1403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,13 +1427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,25 +1445,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,7 +1487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,13 +1511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,6 +1528,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1560,68 +1620,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1631,10 +1634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1643,133 +1646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1783,6 +1786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3768,7 +3772,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4392,8 +4396,8 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4450,8 +4454,8 @@
       <c r="F2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G2">
-        <v>13192293681</v>
+      <c r="G2" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:7">
@@ -4462,16 +4466,16 @@
         <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>294</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -4485,19 +4489,19 @@
         <v>292</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
@@ -4508,16 +4512,16 @@
         <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -4531,16 +4535,16 @@
         <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G6" s="2">
         <v>44544.631412037</v>
@@ -4554,16 +4558,16 @@
         <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -4577,19 +4581,19 @@
         <v>292</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:7">
@@ -4600,19 +4604,19 @@
         <v>292</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:7">
@@ -4623,10 +4627,10 @@
         <v>292</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>76</v>
@@ -4635,7 +4639,7 @@
         <v>85</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:7">
@@ -4646,10 +4650,10 @@
         <v>292</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -4669,10 +4673,10 @@
         <v>292</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>58</v>
@@ -4681,7 +4685,7 @@
         <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4695,7 +4699,7 @@
   <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -4739,22 +4743,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:7">
@@ -4762,16 +4766,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -4785,19 +4789,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -4808,13 +4812,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>101</v>
@@ -4831,10 +4835,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -4843,10 +4847,10 @@
         <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4854,13 +4858,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>58</v>
@@ -4877,19 +4881,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>46</v>
@@ -4900,22 +4904,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4923,16 +4927,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -4946,13 +4950,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -4961,7 +4965,7 @@
         <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4969,13 +4973,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>76</v>
@@ -4984,7 +4988,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4992,22 +4996,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5015,22 +5019,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5038,13 +5042,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>76</v>
@@ -5053,7 +5057,7 @@
         <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5061,22 +5065,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
         <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5084,13 +5088,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C17" t="s">
         <v>213</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>76</v>
@@ -5099,7 +5103,7 @@
         <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5107,13 +5111,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>76</v>
@@ -5122,7 +5126,7 @@
         <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5130,13 +5134,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>58</v>
@@ -5145,7 +5149,7 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5153,22 +5157,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5176,13 +5180,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>58</v>
@@ -5191,7 +5195,7 @@
         <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5199,13 +5203,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>76</v>

--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD56A0-9DF1-4BCF-86A6-65FA45CCE91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="382">
   <si>
     <t>id</t>
   </si>
@@ -913,269 +919,268 @@
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[3]/div']</t>
   </si>
   <si>
+    <t>查询不存在的停呼号码</t>
+  </si>
+  <si>
+    <t>[["send_keys()","13192293682"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/div/span']</t>
+  </si>
+  <si>
+    <t>查询已存在的停呼原因</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","已还款"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[4]/div']</t>
+  </si>
+  <si>
+    <t>已还款</t>
+  </si>
+  <si>
+    <t>查询不存在的停呼原因</t>
+  </si>
+  <si>
+    <t>查询已存在的创建日期</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[3]/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[3]/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-14"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[6]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的创建日期</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["click()"]]</t>
+  </si>
+  <si>
+    <t>新增停呼号码为空</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[2]/div/form/div[1]/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请输入停呼号码</t>
+  </si>
+  <si>
+    <t>新增停呼</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[2]/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","13111111111"],["click()"]]</t>
+  </si>
+  <si>
+    <t>添加停呼成功！</t>
+  </si>
+  <si>
+    <t>批量入呼</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[4]/div[2]/table/tbody/tr[2]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[2]']]</t>
+  </si>
+  <si>
+    <t>入呼成功！</t>
+  </si>
+  <si>
+    <t>导出停呼</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>编辑命中规则停呼</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="tab-rule"]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div/div[3]/button'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div/div[3]/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>查询存在的登录名</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","zhou11"],["click()"]]</t>
+  </si>
+  <si>
+    <t>zhou11</t>
+  </si>
+  <si>
+    <t>查询不存在的登录名</t>
+  </si>
+  <si>
+    <t>查询存在的姓名</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","周彦龙"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[3]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的姓名</t>
+  </si>
+  <si>
+    <t>查询角色超管</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>查询人工坐席是</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>查询人工坐席否</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[5]/div/div']</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr/td[6]/div']</t>
+  </si>
+  <si>
+    <t>冻结</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-11"],["send_keys()","2021-12-11"],["click()"]]</t>
+  </si>
+  <si>
+    <t>新增用户名称为空</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>请输入登录名称</t>
+  </si>
+  <si>
+    <t>新增用户姓名为空</t>
+  </si>
+  <si>
+    <t>请输入用户姓名</t>
+  </si>
+  <si>
+    <t>新增用户角色为空</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请选择角色</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","zzyl"],["send_keys()","zyl"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>新增成功！</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>禁用成功</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]/span'],[By.XPATH,'/html/body/div[3]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>启用成功</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[2]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>编辑成功！</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>重置密码成功</t>
+  </si>
+  <si>
+    <t>批量禁用</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>批量启用</t>
+  </si>
+  <si>
+    <t>批量重置密码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
     <t>13192293681</t>
-  </si>
-  <si>
-    <t>查询不存在的停呼号码</t>
-  </si>
-  <si>
-    <t>[["send_keys()","13192293682"],["click()"]]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/div/span']</t>
-  </si>
-  <si>
-    <t>查询已存在的停呼原因</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","已还款"],["click()"]]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[4]/div']</t>
-  </si>
-  <si>
-    <t>已还款</t>
-  </si>
-  <si>
-    <t>查询不存在的停呼原因</t>
-  </si>
-  <si>
-    <t>查询已存在的创建日期</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[3]/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/div[3]/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-14"],["click()"]]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[6]/div']</t>
-  </si>
-  <si>
-    <t>查询不存在的创建日期</t>
-  </si>
-  <si>
-    <t>[["send_keys()","2021-12-05"],["send_keys()","2021-12-05"],["click()"]]</t>
-  </si>
-  <si>
-    <t>新增停呼号码为空</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[2]/div/form/div[1]/div/div[2]']</t>
-  </si>
-  <si>
-    <t>请输入停呼号码</t>
-  </si>
-  <si>
-    <t>新增停呼</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[2]/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","13111111111"],["click()"]]</t>
-  </si>
-  <si>
-    <t>添加停呼成功！</t>
-  </si>
-  <si>
-    <t>批量入呼</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[4]/div[2]/table/tbody/tr[2]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[2]']]</t>
-  </si>
-  <si>
-    <t>入呼成功！</t>
-  </si>
-  <si>
-    <t>导出停呼</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[1]/button[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[3]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>编辑命中规则停呼</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="tab-rule"]'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div/div[3]/button'],[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div/div[3]/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>保存成功</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>查询存在的登录名</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","zhou11"],["click()"]]</t>
-  </si>
-  <si>
-    <t>zhou11</t>
-  </si>
-  <si>
-    <t>查询不存在的登录名</t>
-  </si>
-  <si>
-    <t>查询存在的姓名</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","周彦龙"],["click()"]]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[3]/div']</t>
-  </si>
-  <si>
-    <t>查询不存在的姓名</t>
-  </si>
-  <si>
-    <t>查询角色超管</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
-  </si>
-  <si>
-    <t>超级管理员</t>
-  </si>
-  <si>
-    <t>查询人工坐席是</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>查询人工坐席否</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[5]/div/div']</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr/td[6]/div']</t>
-  </si>
-  <si>
-    <t>冻结</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","2021-12-11"],["send_keys()","2021-12-11"],["click()"]]</t>
-  </si>
-  <si>
-    <t>新增用户名称为空</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>请输入登录名称</t>
-  </si>
-  <si>
-    <t>新增用户姓名为空</t>
-  </si>
-  <si>
-    <t>请输入用户姓名</t>
-  </si>
-  <si>
-    <t>新增用户角色为空</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div[2]']</t>
-  </si>
-  <si>
-    <t>请选择角色</t>
-  </si>
-  <si>
-    <t>新增用户</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","zzyl"],["send_keys()","zyl"],["click()"],["click()"],["click()"]]</t>
-  </si>
-  <si>
-    <t>新增成功！</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>禁用成功</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]/span'],[By.XPATH,'/html/body/div[3]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>[["click()"],["click()"],["click()"],["click()"],["click()"]]</t>
-  </si>
-  <si>
-    <t>启用成功</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[2]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>编辑成功！</t>
-  </si>
-  <si>
-    <t>重置密码</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>重置密码成功</t>
-  </si>
-  <si>
-    <t>批量禁用</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>批量启用</t>
-  </si>
-  <si>
-    <t>批量重置密码</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无数据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,345 +1189,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1530,253 +1220,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1786,63 +1234,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2100,30 +1505,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="73.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="73.9140625" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="81.75" customWidth="1"/>
-    <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +1551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2166,7 +1571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2186,7 +1591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2206,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2226,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2249,7 +1654,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2272,7 +1677,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2295,7 +1700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2315,7 +1720,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2335,7 +1740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2355,7 +1760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2375,7 +1780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2395,7 +1800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2416,33 +1821,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="175.083333333333" customWidth="1"/>
-    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
+    <col min="4" max="4" width="175.08203125" customWidth="1"/>
+    <col min="5" max="5" width="42.58203125" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2465,7 +1869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2488,7 +1892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2511,7 +1915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2534,7 +1938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2557,7 +1961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2580,7 +1984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2603,7 +2007,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2626,7 +2030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2649,7 +2053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2672,7 +2076,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2695,7 +2099,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2718,7 +2122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2741,7 +2145,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2765,31 +2169,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="131.583333333333" customWidth="1"/>
+    <col min="4" max="4" width="131.58203125" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="79.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="79.83203125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2835,7 +2238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2858,7 +2261,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2881,7 +2284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2904,7 +2307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2927,7 +2330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2950,7 +2353,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2973,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2996,7 +2399,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3019,7 +2422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3042,7 +2445,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3065,7 +2468,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3088,7 +2491,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3111,7 +2514,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3134,7 +2537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3157,7 +2560,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3180,7 +2583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3203,7 +2606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3226,7 +2629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3249,7 +2652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3272,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3296,34 +2699,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="143.333333333333" customWidth="1"/>
-    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="81.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="143.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.58203125" customWidth="1"/>
+    <col min="6" max="6" width="81.08203125" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3346,7 +2748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3369,7 +2771,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3392,7 +2794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3415,7 +2817,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3438,7 +2840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3461,7 +2863,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3484,7 +2886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3507,7 +2909,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3530,7 +2932,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3553,7 +2955,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3576,7 +2978,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3599,7 +3001,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3622,7 +3024,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3645,7 +3047,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3668,7 +3070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3691,7 +3093,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3714,7 +3116,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3737,7 +3139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3761,33 +3163,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
-    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="81.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="42.58203125" customWidth="1"/>
+    <col min="6" max="6" width="81.08203125" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3833,7 +3234,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3856,7 +3257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3879,7 +3280,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3902,7 +3303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3925,7 +3326,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3948,7 +3349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3971,7 +3372,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3994,7 +3395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4017,7 +3418,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4040,7 +3441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4063,7 +3464,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4086,7 +3487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4109,7 +3510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4132,7 +3533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4155,7 +3556,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4178,7 +3579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4201,7 +3602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4224,7 +3625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4247,7 +3648,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4270,7 +3671,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4293,7 +3694,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4316,7 +3717,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4339,7 +3740,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4362,7 +3763,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4386,33 +3787,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
-    <col min="5" max="5" width="39.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="39.08203125" customWidth="1"/>
     <col min="6" max="6" width="78.75" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4435,7 +3835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4455,10 +3855,10 @@
         <v>296</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4466,22 +3866,22 @@
         <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>294</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:7">
+      <c r="G3" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4489,22 +3889,22 @@
         <v>292</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>303</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>304</v>
       </c>
-      <c r="G4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4512,22 +3912,22 @@
         <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4535,22 +3935,22 @@
         <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
         <v>309</v>
       </c>
-      <c r="F6" t="s">
-        <v>310</v>
-      </c>
       <c r="G6" s="2">
-        <v>44544.631412037</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:7">
+        <v>44544.631412037001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4558,22 +3958,22 @@
         <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4581,22 +3981,22 @@
         <v>292</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F8" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:7">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4604,22 +4004,22 @@
         <v>292</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4627,10 +4027,10 @@
         <v>292</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>76</v>
@@ -4639,10 +4039,10 @@
         <v>85</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4650,10 +4050,10 @@
         <v>292</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -4665,7 +4065,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4673,10 +4073,10 @@
         <v>292</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>58</v>
@@ -4685,37 +4085,37 @@
         <v>85</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
     <col min="5" max="5" width="38.75" customWidth="1"/>
     <col min="6" max="6" width="78.75" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4738,44 +4138,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -4784,41 +4184,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>337</v>
-      </c>
-      <c r="F4" t="s">
-        <v>338</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>101</v>
@@ -4830,15 +4230,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -4847,24 +4247,24 @@
         <v>58</v>
       </c>
       <c r="F6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>58</v>
@@ -4876,67 +4276,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -4945,18 +4345,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -4965,21 +4365,21 @@
         <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>76</v>
@@ -4988,67 +4388,67 @@
         <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" t="s">
         <v>359</v>
       </c>
-      <c r="G13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>76</v>
@@ -5057,44 +4457,44 @@
         <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C16" t="s">
         <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C17" t="s">
         <v>213</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>76</v>
@@ -5103,21 +4503,21 @@
         <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>76</v>
@@ -5126,21 +4526,21 @@
         <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>58</v>
@@ -5149,44 +4549,44 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C21" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>58</v>
@@ -5195,21 +4595,21 @@
         <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C22" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>76</v>
@@ -5222,7 +4622,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/case.xlsx
+++ b/testdata/case.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\pythondemo\testui1125\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD56A0-9DF1-4BCF-86A6-65FA45CCE91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="线索中心" sheetId="1" r:id="rId1"/>
@@ -20,6 +14,7 @@
     <sheet name="呼出记录" sheetId="5" r:id="rId5"/>
     <sheet name="停呼黑名单" sheetId="6" r:id="rId6"/>
     <sheet name="用户管理" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -919,6 +914,9 @@
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/table/tbody/tr/td[3]/div']</t>
   </si>
   <si>
+    <t>13192293681</t>
+  </si>
+  <si>
     <t>查询不存在的停呼号码</t>
   </si>
   <si>
@@ -928,6 +926,165 @@
     <t>[By.XPATH,'//*[@id="appMain"]/div/div/div[2]/div[2]/div[1]/div[3]/div/span']</t>
   </si>
   <si>
+    <t>暂无数据1</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>查询存在的登录名</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","zhou11"],["click()"]]</t>
+  </si>
+  <si>
+    <t>zhou11</t>
+  </si>
+  <si>
+    <t>查询不存在的登录名</t>
+  </si>
+  <si>
+    <t>查询存在的姓名</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","周彦龙"],["click()"]]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[3]/div']</t>
+  </si>
+  <si>
+    <t>查询不存在的姓名</t>
+  </si>
+  <si>
+    <t>查询角色超管</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>查询人工坐席是</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>查询人工坐席否</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[5]/div/div']</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr/td[6]/div']</t>
+  </si>
+  <si>
+    <t>冻结</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
+  </si>
+  <si>
+    <t>[["send_keys()","2021-12-11"],["send_keys()","2021-12-11"],["click()"]]</t>
+  </si>
+  <si>
+    <t>新增用户名称为空</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>请输入登录名称</t>
+  </si>
+  <si>
+    <t>新增用户姓名为空</t>
+  </si>
+  <si>
+    <t>请输入用户姓名</t>
+  </si>
+  <si>
+    <t>新增用户角色为空</t>
+  </si>
+  <si>
+    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div[2]']</t>
+  </si>
+  <si>
+    <t>请选择角色</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["send_keys()","zzyl"],["send_keys()","zyl"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>新增成功！</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>禁用成功</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]/span'],[By.XPATH,'/html/body/div[3]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>[["click()"],["click()"],["click()"],["click()"],["click()"]]</t>
+  </si>
+  <si>
+    <t>启用成功</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[2]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
+  </si>
+  <si>
+    <t>编辑成功！</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>重置密码成功</t>
+  </si>
+  <si>
+    <t>批量禁用</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>批量启用</t>
+  </si>
+  <si>
+    <t>批量重置密码</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
+    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
+  </si>
+  <si>
     <t>查询已存在的停呼原因</t>
   </si>
   <si>
@@ -1010,177 +1167,19 @@
   </si>
   <si>
     <t>保存成功</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>查询存在的登录名</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","zhou11"],["click()"]]</t>
-  </si>
-  <si>
-    <t>zhou11</t>
-  </si>
-  <si>
-    <t>查询不存在的登录名</t>
-  </si>
-  <si>
-    <t>查询存在的姓名</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","周彦龙"],["click()"]]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[3]/div']</t>
-  </si>
-  <si>
-    <t>查询不存在的姓名</t>
-  </si>
-  <si>
-    <t>查询角色超管</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[4]/div']</t>
-  </si>
-  <si>
-    <t>超级管理员</t>
-  </si>
-  <si>
-    <t>查询人工坐席是</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>查询人工坐席否</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[4]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr[1]/td[5]/div/div']</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[3]/table/tbody/tr/td[6]/div']</t>
-  </si>
-  <si>
-    <t>冻结</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/div[6]/div/div/div/div/input[2]'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]']]</t>
-  </si>
-  <si>
-    <t>[["send_keys()","2021-12-11"],["send_keys()","2021-12-11"],["click()"]]</t>
-  </si>
-  <si>
-    <t>新增用户名称为空</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>请输入登录名称</t>
-  </si>
-  <si>
-    <t>新增用户姓名为空</t>
-  </si>
-  <si>
-    <t>请输入用户姓名</t>
-  </si>
-  <si>
-    <t>新增用户角色为空</t>
-  </si>
-  <si>
-    <t>[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div[2]']</t>
-  </si>
-  <si>
-    <t>请选择角色</t>
-  </si>
-  <si>
-    <t>新增用户</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[1]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[2]/div/div/div/input'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[2]/form/div[3]/div/div/div/div[1]/input'],[By.XPATH,'/html/body/div[3]/div[1]/div[1]/ul/li[1]/span'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>[["click()"],["send_keys()","zzyl"],["send_keys()","zyl"],["click()"],["click()"],["click()"]]</t>
-  </si>
-  <si>
-    <t>新增成功！</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>禁用成功</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/form/div[5]/div/div/div/div/input'],[By.XPATH,'/html/body/div[2]/div[1]/div[1]/ul/li[3]/span'],[By.XPATH,'//*[@id="appMain"]/div/div/form/span/button[1]'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[1]/span'],[By.XPATH,'/html/body/div[3]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>[["click()"],["click()"],["click()"],["click()"],["click()"]]</t>
-  </si>
-  <si>
-    <t>启用成功</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[2]'],[By.XPATH,'//*[@id="appMain"]/div/div[2]/div/div[3]/span/button[2]']]</t>
-  </si>
-  <si>
-    <t>编辑成功！</t>
-  </si>
-  <si>
-    <t>重置密码</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>重置密码成功</t>
-  </si>
-  <si>
-    <t>批量禁用</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[3]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>批量启用</t>
-  </si>
-  <si>
-    <t>批量重置密码</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[4]/div[2]/table/tbody/tr[1]/td[1]/div/label/span/span'],[By.XPATH,'//*[@id="appMain"]/div/div/div/div[1]/div[1]/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>[[By.XPATH,'//*[@id="appMain"]/div/div/div/div[2]/div[5]/div[2]/table/tbody/tr[1]/td[10]/div/div/button[4]'],[By.XPATH,'/html/body/div[2]/div/div[3]/button[2]']]</t>
-  </si>
-  <si>
-    <t>13192293681</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无数据1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,9 +1188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1199,20 +1198,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1220,11 +1541,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1234,20 +1797,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1505,30 +2112,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="73.9140625" customWidth="1"/>
+    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="73.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="81.75" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.0833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +2158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1571,7 +2178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1591,7 +2198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1611,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1631,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1654,7 +2261,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1677,7 +2284,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1700,7 +2307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1720,7 +2327,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="13.5" customHeight="1" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1740,7 +2347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1760,7 +2367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1780,7 +2387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1800,7 +2407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1821,32 +2428,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" customWidth="1"/>
-    <col min="4" max="4" width="175.08203125" customWidth="1"/>
-    <col min="5" max="5" width="42.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="175.083333333333" customWidth="1"/>
+    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1892,7 +2500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1915,7 +2523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1938,7 +2546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1961,7 +2569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1984,7 +2592,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2007,7 +2615,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2030,7 +2638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2053,7 +2661,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2076,7 +2684,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2099,7 +2707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2122,7 +2730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2145,7 +2753,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2169,30 +2777,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="131.58203125" customWidth="1"/>
+    <col min="4" max="4" width="131.583333333333" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="79.83203125" customWidth="1"/>
+    <col min="6" max="6" width="79.8333333333333" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2238,7 +2847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2261,7 +2870,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2284,7 +2893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2307,7 +2916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2330,7 +2939,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2353,7 +2962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2376,7 +2985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2399,7 +3008,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2422,7 +3031,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2445,7 +3054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2468,7 +3077,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2491,7 +3100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2514,7 +3123,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2537,7 +3146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2560,7 +3169,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2583,7 +3192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2606,7 +3215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2629,7 +3238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="13.5" customHeight="1" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2652,7 +3261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2675,7 +3284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2699,33 +3308,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="143.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.58203125" customWidth="1"/>
-    <col min="6" max="6" width="81.08203125" customWidth="1"/>
+    <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="143.333333333333" customWidth="1"/>
+    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="81.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +3358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2771,7 +3381,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2794,7 +3404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2817,7 +3427,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2840,7 +3450,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2863,7 +3473,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2886,7 +3496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2909,7 +3519,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2932,7 +3542,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2955,7 +3565,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2978,7 +3588,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3001,7 +3611,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3024,7 +3634,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3047,7 +3657,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3070,7 +3680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3093,7 +3703,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3116,7 +3726,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3139,7 +3749,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3163,32 +3773,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
-    <col min="5" max="5" width="42.58203125" customWidth="1"/>
-    <col min="6" max="6" width="81.08203125" customWidth="1"/>
+    <col min="5" max="5" width="42.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="81.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3211,7 +3822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3234,7 +3845,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3257,7 +3868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3280,7 +3891,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3303,7 +3914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3326,7 +3937,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3349,7 +3960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3372,7 +3983,7 @@
         <v>13192293682</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3395,7 +4006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3418,7 +4029,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3441,7 +4052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3464,7 +4075,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3487,7 +4098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3510,7 +4121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3533,7 +4144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3556,7 +4167,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3579,7 +4190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3602,7 +4213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3625,7 +4236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3648,7 +4259,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3671,7 +4282,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3694,7 +4305,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3717,7 +4328,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3740,7 +4351,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3763,7 +4374,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3787,32 +4398,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
-    <col min="5" max="5" width="39.08203125" customWidth="1"/>
+    <col min="5" max="5" width="39.0833333333333" customWidth="1"/>
     <col min="6" max="6" width="78.75" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +4447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3854,11 +4466,11 @@
       <c r="F2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3866,256 +4478,50 @@
         <v>292</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>294</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44544.631412037001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>327</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.08203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.08333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="136.75" customWidth="1"/>
     <col min="5" max="5" width="38.75" customWidth="1"/>
     <col min="6" max="6" width="78.75" customWidth="1"/>
     <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4138,44 +4544,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="13.5" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -4184,41 +4590,41 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>101</v>
@@ -4230,15 +4636,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="17" customHeight="1" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -4247,24 +4653,24 @@
         <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>58</v>
@@ -4276,67 +4682,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -4345,18 +4751,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -4365,21 +4771,21 @@
         <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>76</v>
@@ -4388,67 +4794,67 @@
         <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="G13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>76</v>
@@ -4457,44 +4863,44 @@
         <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
         <v>174</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
         <v>213</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>76</v>
@@ -4503,21 +4909,21 @@
         <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>76</v>
@@ -4526,21 +4932,21 @@
         <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>58</v>
@@ -4549,44 +4955,44 @@
         <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C21" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>58</v>
@@ -4595,21 +5001,21 @@
         <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C22" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>76</v>
@@ -4622,7 +5028,231 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44544.631412037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:7">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>